--- a/Analyse_Personas.xlsx
+++ b/Analyse_Personas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\carole\hackdays_quality_of_life\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irma.glatt\Desktop\Master DS\Data Challenge\106\project\HackdaysLucerne-LifeQualityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715D0A19-5C42-4A84-9AD6-A02989609437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AA5CF8-C9DF-4191-A064-4F5195D6C417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E9C64A26-96B6-488B-90D2-0881EAC58E68}"/>
+    <workbookView xWindow="8160" yWindow="390" windowWidth="24540" windowHeight="20490" activeTab="1" xr2:uid="{E9C64A26-96B6-488B-90D2-0881EAC58E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
   <si>
     <t>Zuzug</t>
   </si>
@@ -189,100 +189,16 @@
 - tiefste Lebensqualität</t>
   </si>
   <si>
-    <t>v_79_Wohnsituation_Umgebung_des_Hauses</t>
-  </si>
-  <si>
-    <t>v_56_Zufrieden_mit_Kulturangebot</t>
-  </si>
-  <si>
-    <t>v_305_Kultur_wichtig_Vereinsleben</t>
-  </si>
-  <si>
-    <t>v_306_Kultur_wichtig_Esskultur</t>
-  </si>
-  <si>
-    <t>v_324_Anbindung_Velo_Bahn</t>
-  </si>
-  <si>
-    <t>v_325_Anbindung_Velo_Bus</t>
-  </si>
-  <si>
-    <t>v_359_Wünscht_Infrastruktur_Freizeiteinrichtungen</t>
-  </si>
-  <si>
-    <t>v_86_Unzufrieden_weil_kein_Gemeinschatfsgefühl</t>
-  </si>
-  <si>
-    <t>v_41_Fühlt_sicher_Velo</t>
-  </si>
-  <si>
-    <t>v_50_Erreichbarkeit_Wohnung_mit_ÖV</t>
-  </si>
-  <si>
-    <t>v_51_Erreichbarkeit_Wohnung_mit_ÖV</t>
-  </si>
-  <si>
-    <t>v_187_Dauer_Grünphase_Fussgänger</t>
-  </si>
-  <si>
-    <t>v_279_Anzahl_Veloparkplätze_Allg</t>
-  </si>
-  <si>
-    <t>v_280_Anzahl_Veloparkplätze_Bhf</t>
-  </si>
-  <si>
-    <t>v_316_Möglichkeit_bekannt_städt_Ebene</t>
-  </si>
-  <si>
-    <t>v_106_Möglichkeit_Einbringen_städt_Ebene</t>
-  </si>
-  <si>
-    <t>v_212_Möglichkeiten_bekannt_städt_Projekte</t>
-  </si>
-  <si>
-    <t>v_366_Möglichkeit_Einbringen_städt_Projekte</t>
-  </si>
-  <si>
-    <t>V_248_Wünscht_mehr_Bäume</t>
-  </si>
-  <si>
     <t>- weniger als 10 Jahre hier
 - eher jung (ca. 35 Mittelwert)
 - gebildet
 - ok Lebensqualität</t>
   </si>
   <si>
-    <t>v_42_Fühlt_sicher_zu_Fuss</t>
-  </si>
-  <si>
-    <t>m=1 / f=2 / d=3</t>
-  </si>
-  <si>
-    <t>1-7 (1=weniger als 2 Jahr / 7 = länger als 25 Jahre)</t>
-  </si>
-  <si>
-    <t>v_6_Geschlecht</t>
-  </si>
-  <si>
-    <t>v_99_Zuzug</t>
-  </si>
-  <si>
-    <t>v_206_Lebensqualallg</t>
-  </si>
-  <si>
-    <t>1-6 (1=sehr schlecht / 6 = sehr gut)</t>
-  </si>
-  <si>
-    <t>1-4 (1=sehr zufrieden / 4 = sehr unzufrieden)</t>
-  </si>
-  <si>
     <t>1-5 (1=sehr sicher / 4 = sehr unsicher / 5 = keine Angabe)</t>
   </si>
   <si>
     <t>1-5 (1=zu kurz/ 4 = zu lang / 5 = keine Angabe)</t>
-  </si>
-  <si>
-    <t>1-5 (1=zu viel/ 4 = zu wenig / 5 = keine Angabe)</t>
   </si>
   <si>
     <t>Nr</t>
@@ -293,12 +209,6 @@
   <si>
     <t>Relevante Variablen 
 (Genügend grosse Unterschiede zwischen Personas)</t>
-  </si>
-  <si>
-    <t>1 oder 2 (1=kenne Möglichkeiten / 2 = kenne nicht)</t>
-  </si>
-  <si>
-    <t>1-5 (1=sehr zufrieden / 4 = sehr unzufrieden / 5 = kA)</t>
   </si>
   <si>
     <t>1 oder 0 (1= ausgewählt, 0 = nicht ausgewählt)</t>
@@ -413,6 +323,72 @@
   </si>
   <si>
     <t>Cluster Personas (Mittelwerte pro Cluster und Variable)</t>
+  </si>
+  <si>
+    <t>v_294_Medizinische_Betreuung_Zuhause</t>
+  </si>
+  <si>
+    <t>1-5 (1=sehr gut / 4=sehr schlecht / 5 = keine Angabe)</t>
+  </si>
+  <si>
+    <t>v_79_Zufriedenheit_umittelbare_Wohnumgebung</t>
+  </si>
+  <si>
+    <t>1-5 (1=sehr zufrieden / 4=sehr unzufrieden / 5 = keine Angabe)</t>
+  </si>
+  <si>
+    <t>v_355_Gewünschte_Infrastruktur_Naherholungsgebiet</t>
+  </si>
+  <si>
+    <t>v_357_Gewünschte_Infrastruktur_Oeffentlicher_Verkehr</t>
+  </si>
+  <si>
+    <t>v_302_Wichtiges_Kulturangebot_Literatur</t>
+  </si>
+  <si>
+    <t>v_311_Engagement_städtisches_Leben</t>
+  </si>
+  <si>
+    <t>1-5 (1=sehr engagiert / 4 = nicht engagiert / 5 = keine Angabe möglich)</t>
+  </si>
+  <si>
+    <t>v_39_Sicherheitsgefühl_öffentlicher_Verkehr</t>
+  </si>
+  <si>
+    <t>v_323_Anbindung_Velo_an_öffentlichen_Verkehr</t>
+  </si>
+  <si>
+    <t>v_325_Anbindung_Velo_an_Busverbindung</t>
+  </si>
+  <si>
+    <t>1-5 (1=sehr zufrieden / 4 = sehr unzufrieden / 5 keine Angabe)</t>
+  </si>
+  <si>
+    <t>v_212_Kennen_Einbindungsmöglichkeiten_städtische_Projekte</t>
+  </si>
+  <si>
+    <t>1-2 (1=ja / 2=nein)</t>
+  </si>
+  <si>
+    <t>v_106_Zufriedenheit_Einbindungsmöglichkeiten_persönliche_Anliegen_städtische_Ebene</t>
+  </si>
+  <si>
+    <t>v_366_Zufriedenheit_Einbindungsmöglichkeiten_städtische_Projekte</t>
+  </si>
+  <si>
+    <t>v_367_Zufriedenheit_Vorschläge_machen_städtische_Projekte</t>
+  </si>
+  <si>
+    <t>v_293_Kommunikationskanal_Quartier-App</t>
+  </si>
+  <si>
+    <t>v_256_Sorgen_Älterwerden_Finanzielle_Absicherung</t>
+  </si>
+  <si>
+    <t>1-5 (1=sehr viel Sorge/ 4 = keine Sorge / 5 = keine Angabe)</t>
+  </si>
+  <si>
+    <t>v_229</t>
   </si>
 </sst>
 </file>
@@ -446,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +459,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -512,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -546,9 +528,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -569,6 +548,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2974,13 +2957,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>326570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1643641</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>3206570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3018,13 +3001,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2227569</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>167287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>346960</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>3047287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3062,13 +3045,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>102455</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>3531454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1531127</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1213525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3439,7 +3422,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>38</v>
@@ -4121,10 +4104,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,850 +4139,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D1" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23">
+        <v>3</v>
+      </c>
+      <c r="G2" s="24">
+        <v>4</v>
+      </c>
+      <c r="H2" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="30">
+        <v>3.28</v>
+      </c>
+      <c r="E3" s="30">
+        <v>5.6283783783783798</v>
+      </c>
+      <c r="F3" s="30">
+        <v>2.5363636363636402</v>
+      </c>
+      <c r="G3" s="30">
+        <v>6.4545454545454497</v>
+      </c>
+      <c r="H3" s="30">
+        <v>5.2068965517241397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1.48571428571429</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1.3243243243243199</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1.5363636363636399</v>
+      </c>
+      <c r="H4" s="30">
+        <v>1.4942528735632199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="30">
+        <v>4.9771428571428604</v>
+      </c>
+      <c r="E5" s="30">
+        <v>5.0675675675675702</v>
+      </c>
+      <c r="F5" s="30">
+        <v>4.9545454545454497</v>
+      </c>
+      <c r="G5" s="30">
+        <v>4.7818181818181804</v>
+      </c>
+      <c r="H5" s="30">
+        <v>5.0689655172413799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1.72</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1.43243243243243</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1.5636363636363599</v>
+      </c>
+      <c r="H7" s="30">
+        <v>1.40229885057471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0.23428571428571399</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0.39864864864864902</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.190909090909091</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.30909090909090903</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0.252873563218391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.65142857142857102</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0.49324324324324298</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.527272727272727</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.47126436781609199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="30">
+        <v>2.6514285714285699</v>
+      </c>
+      <c r="E11" s="30">
+        <v>2.5743243243243201</v>
+      </c>
+      <c r="F11" s="30">
+        <v>2.8</v>
+      </c>
+      <c r="G11" s="30">
+        <v>2.9909090909090899</v>
+      </c>
+      <c r="H11" s="30">
+        <v>2.83908045977011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1.54285714285714</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1.5608108108108101</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1.4272727272727299</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1.52727272727273</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1.5057471264367801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="30">
+        <v>2.1428571428571401</v>
+      </c>
+      <c r="E13" s="30">
+        <v>2.1824324324324298</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1.94545454545455</v>
+      </c>
+      <c r="G13" s="30">
+        <v>2.0454545454545499</v>
+      </c>
+      <c r="H13" s="30">
+        <v>2.0689655172413799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="30">
+        <v>1.46857142857143</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1.33108108108108</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G15" s="30">
+        <v>1.4636363636363601</v>
+      </c>
+      <c r="H15" s="30">
+        <v>1.26436781609195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="30">
+        <v>1.46857142857143</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1.33108108108108</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1.67272727272727</v>
+      </c>
+      <c r="H16" s="30">
+        <v>1.28735632183908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="30">
+        <v>2.0857142857142899</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2.14864864864865</v>
+      </c>
+      <c r="F17" s="30">
+        <v>4.7636363636363601</v>
+      </c>
+      <c r="G17" s="30">
+        <v>4.4272727272727304</v>
+      </c>
+      <c r="H17" s="30">
+        <v>4.6666666666666696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="30">
+        <v>2.1828571428571402</v>
+      </c>
+      <c r="E18" s="30">
+        <v>2.0878378378378399</v>
+      </c>
+      <c r="F18" s="30">
+        <v>4.9090909090909101</v>
+      </c>
+      <c r="G18" s="30">
+        <v>4.5818181818181802</v>
+      </c>
+      <c r="H18" s="30">
+        <v>4.9080459770114899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22">
+        <v>2</v>
+      </c>
+      <c r="F24" s="23">
+        <v>3</v>
+      </c>
+      <c r="G24" s="24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="G25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-      <c r="E2" s="23">
-        <v>2</v>
-      </c>
-      <c r="F2" s="24">
-        <v>3</v>
-      </c>
-      <c r="G2" s="25">
-        <v>4</v>
-      </c>
-      <c r="H2" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="H26" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B28" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="31">
-        <v>3.28</v>
-      </c>
-      <c r="E3" s="31">
-        <v>5.6283783783783798</v>
-      </c>
-      <c r="F3" s="31">
-        <v>2.5363636363636402</v>
-      </c>
-      <c r="G3" s="31">
-        <v>6.4545454545454497</v>
-      </c>
-      <c r="H3" s="31">
-        <v>5.2068965517241397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="G28" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B29" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="31">
-        <v>1.48571428571429</v>
-      </c>
-      <c r="E4" s="31">
-        <v>1.3243243243243199</v>
-      </c>
-      <c r="F4" s="31">
-        <v>1.63636363636364</v>
-      </c>
-      <c r="G4" s="31">
-        <v>1.5363636363636399</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1.4942528735632199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="31">
-        <v>4.9771428571428604</v>
-      </c>
-      <c r="E5" s="31">
-        <v>5.0675675675675702</v>
-      </c>
-      <c r="F5" s="31">
-        <v>4.9545454545454497</v>
-      </c>
-      <c r="G5" s="31">
-        <v>4.7818181818181804</v>
-      </c>
-      <c r="H5" s="31">
-        <v>5.0689655172413799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="31">
-        <v>1.72</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1.43243243243243</v>
-      </c>
-      <c r="F7" s="31">
-        <v>1.63636363636364</v>
-      </c>
-      <c r="G7" s="31">
-        <v>1.5636363636363599</v>
-      </c>
-      <c r="H7" s="31">
-        <v>1.40229885057471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0.23428571428571399</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0.39864864864864902</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0.190909090909091</v>
-      </c>
-      <c r="G8" s="31">
-        <v>0.30909090909090903</v>
-      </c>
-      <c r="H8" s="31">
-        <v>0.252873563218391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="31">
-        <v>0.65142857142857102</v>
-      </c>
-      <c r="E9" s="31">
-        <v>0.49324324324324298</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="G9" s="31">
-        <v>0.527272727272727</v>
-      </c>
-      <c r="H9" s="31">
-        <v>0.47126436781609199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="31">
-        <v>2.6514285714285699</v>
-      </c>
-      <c r="E11" s="31">
-        <v>2.5743243243243201</v>
-      </c>
-      <c r="F11" s="31">
-        <v>2.8</v>
-      </c>
-      <c r="G11" s="31">
-        <v>2.9909090909090899</v>
-      </c>
-      <c r="H11" s="31">
-        <v>2.83908045977011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="31">
-        <v>1.54285714285714</v>
-      </c>
-      <c r="E12" s="31">
-        <v>1.5608108108108101</v>
-      </c>
-      <c r="F12" s="31">
-        <v>1.4272727272727299</v>
-      </c>
-      <c r="G12" s="31">
-        <v>1.52727272727273</v>
-      </c>
-      <c r="H12" s="31">
-        <v>1.5057471264367801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="31">
-        <v>2.1428571428571401</v>
-      </c>
-      <c r="E13" s="31">
-        <v>2.1824324324324298</v>
-      </c>
-      <c r="F13" s="31">
-        <v>1.94545454545455</v>
-      </c>
-      <c r="G13" s="31">
-        <v>2.0454545454545499</v>
-      </c>
-      <c r="H13" s="31">
-        <v>2.0689655172413799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="31">
-        <v>1.46857142857143</v>
-      </c>
-      <c r="E15" s="31">
-        <v>1.33108108108108</v>
-      </c>
-      <c r="F15" s="31">
-        <v>1.27272727272727</v>
-      </c>
-      <c r="G15" s="31">
-        <v>1.4636363636363601</v>
-      </c>
-      <c r="H15" s="31">
-        <v>1.26436781609195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="31">
-        <v>1.46857142857143</v>
-      </c>
-      <c r="E16" s="31">
-        <v>1.33108108108108</v>
-      </c>
-      <c r="F16" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="31">
-        <v>1.67272727272727</v>
-      </c>
-      <c r="H16" s="31">
-        <v>1.28735632183908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="31">
-        <v>2.0857142857142899</v>
-      </c>
-      <c r="E17" s="31">
-        <v>2.14864864864865</v>
-      </c>
-      <c r="F17" s="31">
-        <v>4.7636363636363601</v>
-      </c>
-      <c r="G17" s="31">
-        <v>4.4272727272727304</v>
-      </c>
-      <c r="H17" s="31">
-        <v>4.6666666666666696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="31">
-        <v>2.1828571428571402</v>
-      </c>
-      <c r="E18" s="31">
-        <v>2.0878378378378399</v>
-      </c>
-      <c r="F18" s="31">
-        <v>4.9090909090909101</v>
-      </c>
-      <c r="G18" s="31">
-        <v>4.5818181818181802</v>
-      </c>
-      <c r="H18" s="31">
-        <v>4.9080459770114899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
-        <v>18</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="31">
-        <v>2.9714285714285702</v>
-      </c>
-      <c r="E19" s="31">
-        <v>2.7770270270270299</v>
-      </c>
-      <c r="F19" s="31">
-        <v>3.4909090909090899</v>
-      </c>
-      <c r="G19" s="31">
-        <v>3.0181818181818199</v>
-      </c>
-      <c r="H19" s="31">
-        <v>3.16091954022989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="31">
-        <v>3.1828571428571402</v>
-      </c>
-      <c r="E20" s="31">
-        <v>3.0202702702702702</v>
-      </c>
-      <c r="F20" s="31">
-        <v>3.7363636363636399</v>
-      </c>
-      <c r="G20" s="31">
-        <v>3.25454545454545</v>
-      </c>
-      <c r="H20" s="31">
-        <v>3.4367816091954002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
-        <v>21</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="31">
-        <v>1.69714285714286</v>
-      </c>
-      <c r="E22" s="31">
-        <v>1.1621621621621601</v>
-      </c>
-      <c r="F22" s="31">
-        <v>1.83636363636364</v>
-      </c>
-      <c r="G22" s="31">
-        <v>1.5454545454545501</v>
-      </c>
-      <c r="H22" s="31">
-        <v>1.0804597701149401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="31">
-        <v>1.8685714285714301</v>
-      </c>
-      <c r="E23" s="31">
-        <v>1.2094594594594601</v>
-      </c>
-      <c r="F23" s="31">
-        <v>1.89090909090909</v>
-      </c>
-      <c r="G23" s="31">
-        <v>1.77272727272727</v>
-      </c>
-      <c r="H23" s="31">
-        <v>1.17241379310345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="31">
-        <v>3.9028571428571399</v>
-      </c>
-      <c r="E24" s="31">
-        <v>2.0675675675675702</v>
-      </c>
-      <c r="F24" s="31">
-        <v>4.5545454545454502</v>
-      </c>
-      <c r="G24" s="31">
-        <v>3.9272727272727299</v>
-      </c>
-      <c r="H24" s="31">
-        <v>1.9310344827586201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="31">
-        <v>4.68</v>
-      </c>
-      <c r="E25" s="31">
-        <v>2.2905405405405399</v>
-      </c>
-      <c r="F25" s="31">
-        <v>4.7</v>
-      </c>
-      <c r="G25" s="31">
-        <v>4.7545454545454504</v>
-      </c>
-      <c r="H25" s="31">
-        <v>2.0114942528735602</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>25</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
-        <v>26</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="31">
-        <v>0.24</v>
-      </c>
-      <c r="E27" s="31">
-        <v>0.18243243243243201</v>
-      </c>
-      <c r="F27" s="31">
-        <v>0.145454545454545</v>
-      </c>
-      <c r="G27" s="31">
-        <v>0.17272727272727301</v>
-      </c>
-      <c r="H27" s="31">
-        <v>0.114942528735632</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
-        <v>27</v>
-      </c>
-      <c r="B28" s="21" t="s">
+      <c r="G30" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="31">
-        <v>0.38285714285714301</v>
-      </c>
-      <c r="E28" s="31">
-        <v>0.38513513513513498</v>
-      </c>
-      <c r="F28" s="31">
-        <v>0.33636363636363598</v>
-      </c>
-      <c r="G28" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="H28" s="31">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
-        <v>29</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="31">
-        <v>1.5771428571428601</v>
-      </c>
-      <c r="E29" s="31">
-        <v>1.47972972972973</v>
-      </c>
-      <c r="F29" s="31">
-        <v>1.6</v>
-      </c>
-      <c r="G29" s="31">
-        <v>1.4363636363636401</v>
-      </c>
-      <c r="H29" s="31">
-        <v>1.3333333333333299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
-        <v>30</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="31">
-        <v>6.2857142857142903E-2</v>
-      </c>
-      <c r="E30" s="31">
-        <v>1.35135135135135E-2</v>
-      </c>
-      <c r="F30" s="31">
-        <v>2.7272727272727299E-2</v>
-      </c>
-      <c r="G30" s="31">
-        <v>2.7272727272727299E-2</v>
-      </c>
-      <c r="H30" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:8" ht="138" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22">
-        <v>1</v>
-      </c>
-      <c r="E36" s="23">
-        <v>2</v>
-      </c>
-      <c r="F36" s="24">
-        <v>3</v>
-      </c>
-      <c r="G36" s="25">
-        <v>4</v>
-      </c>
-      <c r="H36" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>87</v>
+      <c r="H30" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5013,8 +4692,8 @@
     <oddFooter>&amp;L&amp;D&amp;C&amp;F&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="31" max="16383" man="1"/>
-    <brk id="35" max="16383" man="1"/>
+    <brk id="19" max="16383" man="1"/>
+    <brk id="23" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
